--- a/tests/ISA/ISA.Spreadsheet.Tests/TestFiles/isa.investigation.xlsx
+++ b/tests/ISA/ISA.Spreadsheet.Tests/TestFiles/isa.investigation.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\arcCommander\tests\ArcCommander.Tests.NetCore\ArcCommander\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\ARC_tools\ARCtrl\tests\ISA\ISA.Spreadsheet.Tests\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6020251A-48AB-43C8-A088-7EA533E0582E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CF0AC9EA-4ACD-4D37-9913-75026F6523F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="4230" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Text Document" sheetId="1" r:id="rId1"/>
+    <sheet name="Investigation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1110,48 +1110,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1167,7 +1167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1469,17 +1469,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.53515625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1505,12 +1505,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1573,12 +1573,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>2007-04-30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1618,12 +1618,12 @@
         <v>2009-03-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -1631,12 +1631,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>17439666</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1676,22 +1676,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1733,22 +1733,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1790,27 +1790,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>2007-04-30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>2009-03-10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1858,22 +1858,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -1881,12 +1881,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -1902,12 +1902,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>17439666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1947,22 +1947,22 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -2000,12 +2000,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -2111,12 +2111,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -2201,17 +2201,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>184</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -2235,32 +2235,32 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>157</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -2302,22 +2302,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>162</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>163</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -2359,32 +2359,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>72</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>74</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>2007-04-30</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>2009-03-10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -2432,22 +2432,22 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -2471,12 +2471,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -2484,17 +2484,17 @@
         <v>17439666</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -2510,22 +2510,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -2575,12 +2575,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>102</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>109</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>110</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>113</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>116</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>120</v>
       </c>
@@ -2644,12 +2644,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -2683,17 +2683,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2710,57 +2710,57 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -2802,22 +2802,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -2859,27 +2859,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>196</v>
       </c>
